--- a/data/siswa.xlsx
+++ b/data/siswa.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,94 +433,65 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>a0a02e91-75a9-4ba0-8313-2b6f15177a72</v>
+        <v>af81dd32-2662-4d1c-836e-c3f5e4c0ece2</v>
       </c>
       <c r="B2" t="str">
-        <v>MP9313</v>
+        <v>OS4637</v>
       </c>
       <c r="C2" t="str">
-        <v>$2a$10$m9G5HVBBWu0hkM5xrQ7G1.evp1.LRIbqLKiqESSRchdEF8x2rR0eK</v>
+        <v>$2a$10$gxIaYu7kp6vd0V13JrWJ1eY97Ze0MU/XHvvzQKBwInZDCY9s4NhnK</v>
       </c>
       <c r="D2" t="str">
-        <v>V0DXYOpN</v>
+        <v>VsybEXbZ</v>
       </c>
       <c r="E2" t="str">
-        <v>Zakiy</v>
+        <v>Yoga</v>
       </c>
       <c r="F2" t="str">
-        <v>XI-2</v>
+        <v>XI-3</v>
       </c>
       <c r="G2" t="str">
         <v>Anggota</v>
       </c>
       <c r="H2" t="str">
-        <v>MPK</v>
+        <v>OSIS</v>
       </c>
       <c r="I2" t="str">
-        <v>2026-02-08T08:52:08.727Z</v>
+        <v>2026-02-08T08:55:27.809Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>af81dd32-2662-4d1c-836e-c3f5e4c0ece2</v>
+        <v>6bd9e954-60fa-43f2-9809-0e54f933a153</v>
       </c>
       <c r="B3" t="str">
-        <v>OS4637</v>
+        <v>MP1460</v>
       </c>
       <c r="C3" t="str">
-        <v>$2a$10$gxIaYu7kp6vd0V13JrWJ1eY97Ze0MU/XHvvzQKBwInZDCY9s4NhnK</v>
+        <v>$2a$10$3LmnJTE7b6HjtztZ5bTsg.kNTEMUNwpuuBmfpgpIxG9lCgqU0sPBy</v>
       </c>
       <c r="D3" t="str">
-        <v>VsybEXbZ</v>
+        <v>ZR39EeWj</v>
       </c>
       <c r="E3" t="str">
         <v>Yoga</v>
       </c>
       <c r="F3" t="str">
-        <v>XI-3</v>
+        <v>X-6</v>
       </c>
       <c r="G3" t="str">
         <v>Anggota</v>
       </c>
       <c r="H3" t="str">
-        <v>OSIS</v>
+        <v>MPK</v>
       </c>
       <c r="I3" t="str">
-        <v>2026-02-08T08:55:27.809Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>6bd9e954-60fa-43f2-9809-0e54f933a153</v>
-      </c>
-      <c r="B4" t="str">
-        <v>MP1460</v>
-      </c>
-      <c r="C4" t="str">
-        <v>$2a$10$3LmnJTE7b6HjtztZ5bTsg.kNTEMUNwpuuBmfpgpIxG9lCgqU0sPBy</v>
-      </c>
-      <c r="D4" t="str">
-        <v>ZR39EeWj</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Yoga</v>
-      </c>
-      <c r="F4" t="str">
-        <v>X-6</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Anggota</v>
-      </c>
-      <c r="H4" t="str">
-        <v>MPK</v>
-      </c>
-      <c r="I4" t="str">
         <v>2026-02-08T08:55:37.085Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>